--- a/online_shop/online_shop/bin/Debug/net7.0/DataBase.xlsx
+++ b/online_shop/online_shop/bin/Debug/net7.0/DataBase.xlsx
@@ -17,18 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>grn</t>
+    <t>fenw</t>
   </si>
   <si>
-    <t>rgpo</t>
-  </si>
-  <si>
-    <t>erk</t>
-  </si>
-  <si>
-    <t>mre;</t>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -59,7 +53,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -83,6 +77,20 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -486,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75">
       <c r="A1" t="s">
@@ -500,24 +508,13 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>8900</v>
+        <v>8909</v>
       </c>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -527,11 +524,11 @@
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData/>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -541,10 +538,10 @@
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData/>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/online_shop/online_shop/bin/Debug/net7.0/DataBase.xlsx
+++ b/online_shop/online_shop/bin/Debug/net7.0/DataBase.xlsx
@@ -19,10 +19,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>fenw</t>
+    <t>eior</t>
   </si>
   <si>
-    <t>new</t>
+    <t>fepo</t>
   </si>
 </sst>
 </file>
@@ -53,7 +53,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -77,6 +77,20 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -508,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>8909</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
